--- a/PDF CONTAINER/RELIANCE PDF/extracted_relience_insurance_data.xlsx
+++ b/PDF CONTAINER/RELIANCE PDF/extracted_relience_insurance_data.xlsx
@@ -660,7 +660,11 @@
           <t>MAR-2023</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>YEZDI ROADSTER DARK</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>334</t>
@@ -797,7 +801,11 @@
           <t>FEB-2022</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>TVS APACHE RTR 160 4V DISC</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>160</t>
@@ -933,7 +941,11 @@
           <t>JAN-2014</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>HONDA ACTIVA 5G DLX LTD EDITION</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>110</t>
@@ -1824,7 +1836,11 @@
           <t>JAN-2022</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>MAHINDRA/275/DI 1 STR</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>39</t>
